--- a/Docs/Dist Notas.xlsx
+++ b/Docs/Dist Notas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalMove_API_2025_2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalMove_2025_2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{57E36834-2E55-4346-B531-B896DDBB24E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C762B03-CCA3-4F4D-9404-FB68C2501526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D7E351BC-821E-4C9F-9F2B-3CA15A6E0E70}"/>
   </bookViews>
@@ -122,14 +122,7 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
       <font>
@@ -142,7 +135,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,7 +162,7 @@
   <autoFilter ref="H6:O16" xr:uid="{14C30357-5608-4032-B1DF-B3FF2937AF46}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{344FBBD0-996B-4085-9EBF-3D0302474333}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{4798ACE5-8918-49B9-B70A-63CBD8153882}" name="Coluna1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4798ACE5-8918-49B9-B70A-63CBD8153882}" name="Coluna1" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{2FA82B33-D6AE-4E67-82B8-24047C823DFA}" name="PO - Rafael"/>
     <tableColumn id="4" xr3:uid="{0387A5A8-0F88-4FC6-800B-8FA34C4487DF}" name="SM - Marco"/>
     <tableColumn id="5" xr3:uid="{8915AF4D-A766-4418-B39F-DBF8C19E50E5}" name="TS - Acledson"/>
@@ -474,7 +474,7 @@
   <dimension ref="H1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,11 +501,11 @@
       </c>
       <c r="J2">
         <f>SUM(J7:O9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>IF(J2=I2,"OK","X")</f>
-        <v>OK</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="8:15" x14ac:dyDescent="0.25">
@@ -567,6 +567,24 @@
       <c r="I7" s="1">
         <v>45917</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H8">
@@ -574,6 +592,24 @@
       </c>
       <c r="I8" s="1">
         <v>45924</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
@@ -643,7 +679,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
